--- a/Estadistica_Descriptiva/Pesos_Alturas_Diametros.xlsx
+++ b/Estadistica_Descriptiva/Pesos_Alturas_Diametros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocalderon/Documents/GitHub/EstadisticaParaGeografos/EstadisticaParaGeografosUN/Estadistica_Descriptiva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BB33BB-2323-6E45-84DF-3A5D85A49A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9785589-34B5-FE4D-838D-CC4AFD0E5C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>Pesos</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Num_Nidos</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -423,6 +432,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -437,7 +449,9 @@
       <c r="D2" s="3">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -453,7 +467,9 @@
       <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -469,7 +485,9 @@
       <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -485,7 +503,9 @@
       <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -501,7 +521,9 @@
       <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -517,7 +539,9 @@
       <c r="D7" s="3">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,7 +557,9 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -549,7 +575,9 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -565,7 +593,9 @@
       <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -581,7 +611,9 @@
       <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -597,7 +629,9 @@
       <c r="D12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -613,7 +647,9 @@
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,7 +665,9 @@
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -645,7 +683,9 @@
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -661,7 +701,9 @@
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -677,7 +719,9 @@
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -693,7 +737,9 @@
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -709,7 +755,9 @@
       <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -725,7 +773,9 @@
       <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,7 +791,9 @@
       <c r="D21" s="3">
         <v>7</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,7 +809,9 @@
       <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -773,7 +827,9 @@
       <c r="D23" s="3">
         <v>9</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,7 +845,9 @@
       <c r="D24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,7 +863,9 @@
       <c r="D25" s="3">
         <v>8</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,7 +881,9 @@
       <c r="D26" s="3">
         <v>8</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,7 +899,9 @@
       <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,7 +917,9 @@
       <c r="D28" s="3">
         <v>12</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -869,7 +935,9 @@
       <c r="D29" s="3">
         <v>10</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +953,9 @@
       <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,8 +971,28 @@
       <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
